--- a/data/output/FV2504_FV2410/PARTIN/37000.xlsx
+++ b/data/output/FV2504_FV2410/PARTIN/37000.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7233" uniqueCount="354">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7254" uniqueCount="354">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1207,6 +1207,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U310" totalsRowShown="0">
+  <autoFilter ref="A1:U310"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1496,7 +1526,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -16803,5 +16836,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/PARTIN/37000.xlsx
+++ b/data/output/FV2504_FV2410/PARTIN/37000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8905" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8817" uniqueCount="658">
   <si>
     <t>#</t>
   </si>
@@ -8102,46 +8102,44 @@
       <c r="V109" s="9"/>
     </row>
     <row r="110" spans="1:22">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5" t="s">
+      <c r="C110" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="K110" s="5" t="s">
+      <c r="K110" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="L110" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M110" s="5" t="s">
+      <c r="L110" s="4"/>
+      <c r="M110" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N110" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O110" s="5"/>
-      <c r="P110" s="5"/>
-      <c r="Q110" s="5"/>
-      <c r="R110" s="5"/>
-      <c r="S110" s="5"/>
-      <c r="T110" s="5"/>
-      <c r="U110" s="5" t="s">
+      <c r="N110" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="V110" s="5" t="s">
+      <c r="V110" s="2" t="s">
         <v>316</v>
       </c>
     </row>
@@ -8602,44 +8600,42 @@
       <c r="V118" s="5"/>
     </row>
     <row r="119" spans="1:22">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C119" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5" t="s">
+      <c r="C119" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K119" s="5"/>
-      <c r="L119" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M119" s="5" t="s">
+      <c r="K119" s="2"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N119" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O119" s="5"/>
-      <c r="P119" s="5"/>
-      <c r="Q119" s="5"/>
-      <c r="R119" s="5"/>
-      <c r="S119" s="5"/>
-      <c r="T119" s="5"/>
-      <c r="U119" s="5" t="s">
+      <c r="N119" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
+      <c r="U119" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="V119" s="5"/>
+      <c r="V119" s="2"/>
     </row>
     <row r="120" spans="1:22">
       <c r="A120" s="5" t="s">
@@ -9005,9 +9001,7 @@
         <v>301</v>
       </c>
       <c r="K126" s="5"/>
-      <c r="L126" s="7" t="s">
-        <v>334</v>
-      </c>
+      <c r="L126" s="4"/>
       <c r="M126" s="5" t="s">
         <v>31</v>
       </c>
@@ -9061,9 +9055,7 @@
         <v>291</v>
       </c>
       <c r="K127" s="5"/>
-      <c r="L127" s="7" t="s">
-        <v>334</v>
-      </c>
+      <c r="L127" s="4"/>
       <c r="M127" s="5" t="s">
         <v>31</v>
       </c>
@@ -9090,46 +9082,44 @@
       <c r="V127" s="5"/>
     </row>
     <row r="128" spans="1:22">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C128" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
-      <c r="J128" s="5" t="s">
+      <c r="C128" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="K128" s="5" t="s">
+      <c r="K128" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="L128" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M128" s="5" t="s">
+      <c r="L128" s="4"/>
+      <c r="M128" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N128" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O128" s="5"/>
-      <c r="P128" s="5"/>
-      <c r="Q128" s="5"/>
-      <c r="R128" s="5"/>
-      <c r="S128" s="5"/>
-      <c r="T128" s="5"/>
-      <c r="U128" s="5" t="s">
+      <c r="N128" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
+      <c r="R128" s="2"/>
+      <c r="S128" s="2"/>
+      <c r="T128" s="2"/>
+      <c r="U128" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="V128" s="5" t="s">
+      <c r="V128" s="2" t="s">
         <v>327</v>
       </c>
     </row>
@@ -9590,44 +9580,42 @@
       <c r="V136" s="5"/>
     </row>
     <row r="137" spans="1:22">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C137" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
-      <c r="J137" s="5" t="s">
+      <c r="C137" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K137" s="5"/>
-      <c r="L137" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M137" s="5" t="s">
+      <c r="K137" s="2"/>
+      <c r="L137" s="4"/>
+      <c r="M137" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N137" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O137" s="5"/>
-      <c r="P137" s="5"/>
-      <c r="Q137" s="5"/>
-      <c r="R137" s="5"/>
-      <c r="S137" s="5"/>
-      <c r="T137" s="5"/>
-      <c r="U137" s="5" t="s">
+      <c r="N137" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="2"/>
+      <c r="S137" s="2"/>
+      <c r="T137" s="2"/>
+      <c r="U137" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="V137" s="5"/>
+      <c r="V137" s="2"/>
     </row>
     <row r="138" spans="1:22">
       <c r="A138" s="5" t="s">
@@ -9993,9 +9981,7 @@
         <v>301</v>
       </c>
       <c r="K144" s="5"/>
-      <c r="L144" s="7" t="s">
-        <v>334</v>
-      </c>
+      <c r="L144" s="4"/>
       <c r="M144" s="5" t="s">
         <v>31</v>
       </c>
@@ -10049,9 +10035,7 @@
         <v>291</v>
       </c>
       <c r="K145" s="5"/>
-      <c r="L145" s="7" t="s">
-        <v>334</v>
-      </c>
+      <c r="L145" s="4"/>
       <c r="M145" s="5" t="s">
         <v>31</v>
       </c>
@@ -10078,46 +10062,44 @@
       <c r="V145" s="5"/>
     </row>
     <row r="146" spans="1:22">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C146" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5" t="s">
+      <c r="C146" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K146" s="5" t="s">
+      <c r="K146" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="L146" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M146" s="5" t="s">
+      <c r="L146" s="4"/>
+      <c r="M146" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N146" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O146" s="5"/>
-      <c r="P146" s="5"/>
-      <c r="Q146" s="5"/>
-      <c r="R146" s="5"/>
-      <c r="S146" s="5"/>
-      <c r="T146" s="5"/>
-      <c r="U146" s="5" t="s">
+      <c r="N146" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O146" s="2"/>
+      <c r="P146" s="2"/>
+      <c r="Q146" s="2"/>
+      <c r="R146" s="2"/>
+      <c r="S146" s="2"/>
+      <c r="T146" s="2"/>
+      <c r="U146" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="V146" s="5" t="s">
+      <c r="V146" s="2" t="s">
         <v>328</v>
       </c>
     </row>
@@ -10578,44 +10560,42 @@
       <c r="V154" s="5"/>
     </row>
     <row r="155" spans="1:22">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="5" t="s">
+      <c r="C155" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K155" s="5"/>
-      <c r="L155" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M155" s="5" t="s">
+      <c r="K155" s="2"/>
+      <c r="L155" s="4"/>
+      <c r="M155" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N155" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O155" s="5"/>
-      <c r="P155" s="5"/>
-      <c r="Q155" s="5"/>
-      <c r="R155" s="5"/>
-      <c r="S155" s="5"/>
-      <c r="T155" s="5"/>
-      <c r="U155" s="5" t="s">
+      <c r="N155" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O155" s="2"/>
+      <c r="P155" s="2"/>
+      <c r="Q155" s="2"/>
+      <c r="R155" s="2"/>
+      <c r="S155" s="2"/>
+      <c r="T155" s="2"/>
+      <c r="U155" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="V155" s="5"/>
+      <c r="V155" s="2"/>
     </row>
     <row r="156" spans="1:22">
       <c r="A156" s="5" t="s">
@@ -10981,9 +10961,7 @@
         <v>301</v>
       </c>
       <c r="K162" s="5"/>
-      <c r="L162" s="7" t="s">
-        <v>334</v>
-      </c>
+      <c r="L162" s="4"/>
       <c r="M162" s="5" t="s">
         <v>31</v>
       </c>
@@ -11037,9 +11015,7 @@
         <v>291</v>
       </c>
       <c r="K163" s="5"/>
-      <c r="L163" s="7" t="s">
-        <v>334</v>
-      </c>
+      <c r="L163" s="4"/>
       <c r="M163" s="5" t="s">
         <v>31</v>
       </c>
@@ -11066,46 +11042,44 @@
       <c r="V163" s="5"/>
     </row>
     <row r="164" spans="1:22">
-      <c r="A164" s="5" t="s">
+      <c r="A164" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B164" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C164" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
-      <c r="I164" s="5"/>
-      <c r="J164" s="5" t="s">
+      <c r="C164" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="K164" s="5" t="s">
+      <c r="K164" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="L164" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M164" s="5" t="s">
+      <c r="L164" s="4"/>
+      <c r="M164" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N164" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O164" s="5"/>
-      <c r="P164" s="5"/>
-      <c r="Q164" s="5"/>
-      <c r="R164" s="5"/>
-      <c r="S164" s="5"/>
-      <c r="T164" s="5"/>
-      <c r="U164" s="5" t="s">
+      <c r="N164" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O164" s="2"/>
+      <c r="P164" s="2"/>
+      <c r="Q164" s="2"/>
+      <c r="R164" s="2"/>
+      <c r="S164" s="2"/>
+      <c r="T164" s="2"/>
+      <c r="U164" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="V164" s="5" t="s">
+      <c r="V164" s="2" t="s">
         <v>329</v>
       </c>
     </row>
@@ -11566,44 +11540,42 @@
       <c r="V172" s="5"/>
     </row>
     <row r="173" spans="1:22">
-      <c r="A173" s="5" t="s">
+      <c r="A173" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C173" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
-      <c r="G173" s="5"/>
-      <c r="H173" s="5"/>
-      <c r="I173" s="5"/>
-      <c r="J173" s="5" t="s">
+      <c r="C173" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K173" s="5"/>
-      <c r="L173" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M173" s="5" t="s">
+      <c r="K173" s="2"/>
+      <c r="L173" s="4"/>
+      <c r="M173" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N173" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O173" s="5"/>
-      <c r="P173" s="5"/>
-      <c r="Q173" s="5"/>
-      <c r="R173" s="5"/>
-      <c r="S173" s="5"/>
-      <c r="T173" s="5"/>
-      <c r="U173" s="5" t="s">
+      <c r="N173" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" s="2"/>
+      <c r="R173" s="2"/>
+      <c r="S173" s="2"/>
+      <c r="T173" s="2"/>
+      <c r="U173" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="V173" s="5"/>
+      <c r="V173" s="2"/>
     </row>
     <row r="174" spans="1:22">
       <c r="A174" s="5" t="s">
@@ -11969,9 +11941,7 @@
         <v>301</v>
       </c>
       <c r="K180" s="5"/>
-      <c r="L180" s="7" t="s">
-        <v>334</v>
-      </c>
+      <c r="L180" s="4"/>
       <c r="M180" s="5" t="s">
         <v>31</v>
       </c>
@@ -12025,9 +11995,7 @@
         <v>291</v>
       </c>
       <c r="K181" s="5"/>
-      <c r="L181" s="7" t="s">
-        <v>334</v>
-      </c>
+      <c r="L181" s="4"/>
       <c r="M181" s="5" t="s">
         <v>31</v>
       </c>
@@ -12054,46 +12022,44 @@
       <c r="V181" s="5"/>
     </row>
     <row r="182" spans="1:22">
-      <c r="A182" s="5" t="s">
+      <c r="A182" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C182" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
-      <c r="G182" s="5"/>
-      <c r="H182" s="5"/>
-      <c r="I182" s="5"/>
-      <c r="J182" s="5" t="s">
+      <c r="C182" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="K182" s="5" t="s">
+      <c r="K182" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="L182" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M182" s="5" t="s">
+      <c r="L182" s="4"/>
+      <c r="M182" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N182" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O182" s="5"/>
-      <c r="P182" s="5"/>
-      <c r="Q182" s="5"/>
-      <c r="R182" s="5"/>
-      <c r="S182" s="5"/>
-      <c r="T182" s="5"/>
-      <c r="U182" s="5" t="s">
+      <c r="N182" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O182" s="2"/>
+      <c r="P182" s="2"/>
+      <c r="Q182" s="2"/>
+      <c r="R182" s="2"/>
+      <c r="S182" s="2"/>
+      <c r="T182" s="2"/>
+      <c r="U182" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="V182" s="5" t="s">
+      <c r="V182" s="2" t="s">
         <v>330</v>
       </c>
     </row>
@@ -12554,44 +12520,42 @@
       <c r="V190" s="5"/>
     </row>
     <row r="191" spans="1:22">
-      <c r="A191" s="5" t="s">
+      <c r="A191" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="B191" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C191" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D191" s="5"/>
-      <c r="E191" s="5"/>
-      <c r="F191" s="5"/>
-      <c r="G191" s="5"/>
-      <c r="H191" s="5"/>
-      <c r="I191" s="5"/>
-      <c r="J191" s="5" t="s">
+      <c r="C191" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K191" s="5"/>
-      <c r="L191" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M191" s="5" t="s">
+      <c r="K191" s="2"/>
+      <c r="L191" s="4"/>
+      <c r="M191" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N191" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O191" s="5"/>
-      <c r="P191" s="5"/>
-      <c r="Q191" s="5"/>
-      <c r="R191" s="5"/>
-      <c r="S191" s="5"/>
-      <c r="T191" s="5"/>
-      <c r="U191" s="5" t="s">
+      <c r="N191" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O191" s="2"/>
+      <c r="P191" s="2"/>
+      <c r="Q191" s="2"/>
+      <c r="R191" s="2"/>
+      <c r="S191" s="2"/>
+      <c r="T191" s="2"/>
+      <c r="U191" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="V191" s="5"/>
+      <c r="V191" s="2"/>
     </row>
     <row r="192" spans="1:22">
       <c r="A192" s="5" t="s">
@@ -12957,9 +12921,7 @@
         <v>301</v>
       </c>
       <c r="K198" s="5"/>
-      <c r="L198" s="7" t="s">
-        <v>334</v>
-      </c>
+      <c r="L198" s="4"/>
       <c r="M198" s="5" t="s">
         <v>31</v>
       </c>
@@ -13013,9 +12975,7 @@
         <v>291</v>
       </c>
       <c r="K199" s="5"/>
-      <c r="L199" s="7" t="s">
-        <v>334</v>
-      </c>
+      <c r="L199" s="4"/>
       <c r="M199" s="5" t="s">
         <v>31</v>
       </c>
@@ -13042,46 +13002,44 @@
       <c r="V199" s="5"/>
     </row>
     <row r="200" spans="1:22">
-      <c r="A200" s="5" t="s">
+      <c r="A200" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="B200" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C200" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D200" s="5"/>
-      <c r="E200" s="5"/>
-      <c r="F200" s="5"/>
-      <c r="G200" s="5"/>
-      <c r="H200" s="5"/>
-      <c r="I200" s="5"/>
-      <c r="J200" s="5" t="s">
+      <c r="C200" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="K200" s="5" t="s">
+      <c r="K200" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="L200" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M200" s="5" t="s">
+      <c r="L200" s="4"/>
+      <c r="M200" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N200" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O200" s="5"/>
-      <c r="P200" s="5"/>
-      <c r="Q200" s="5"/>
-      <c r="R200" s="5"/>
-      <c r="S200" s="5"/>
-      <c r="T200" s="5"/>
-      <c r="U200" s="5" t="s">
+      <c r="N200" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O200" s="2"/>
+      <c r="P200" s="2"/>
+      <c r="Q200" s="2"/>
+      <c r="R200" s="2"/>
+      <c r="S200" s="2"/>
+      <c r="T200" s="2"/>
+      <c r="U200" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="V200" s="5" t="s">
+      <c r="V200" s="2" t="s">
         <v>331</v>
       </c>
     </row>
@@ -13542,44 +13500,42 @@
       <c r="V208" s="5"/>
     </row>
     <row r="209" spans="1:22">
-      <c r="A209" s="5" t="s">
+      <c r="A209" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="B209" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C209" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
-      <c r="F209" s="5"/>
-      <c r="G209" s="5"/>
-      <c r="H209" s="5"/>
-      <c r="I209" s="5"/>
-      <c r="J209" s="5" t="s">
+      <c r="C209" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K209" s="5"/>
-      <c r="L209" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M209" s="5" t="s">
+      <c r="K209" s="2"/>
+      <c r="L209" s="4"/>
+      <c r="M209" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N209" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O209" s="5"/>
-      <c r="P209" s="5"/>
-      <c r="Q209" s="5"/>
-      <c r="R209" s="5"/>
-      <c r="S209" s="5"/>
-      <c r="T209" s="5"/>
-      <c r="U209" s="5" t="s">
+      <c r="N209" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O209" s="2"/>
+      <c r="P209" s="2"/>
+      <c r="Q209" s="2"/>
+      <c r="R209" s="2"/>
+      <c r="S209" s="2"/>
+      <c r="T209" s="2"/>
+      <c r="U209" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="V209" s="5"/>
+      <c r="V209" s="2"/>
     </row>
     <row r="210" spans="1:22">
       <c r="A210" s="5" t="s">
@@ -13945,9 +13901,7 @@
         <v>301</v>
       </c>
       <c r="K216" s="5"/>
-      <c r="L216" s="7" t="s">
-        <v>334</v>
-      </c>
+      <c r="L216" s="4"/>
       <c r="M216" s="5" t="s">
         <v>31</v>
       </c>
@@ -14001,9 +13955,7 @@
         <v>291</v>
       </c>
       <c r="K217" s="5"/>
-      <c r="L217" s="7" t="s">
-        <v>334</v>
-      </c>
+      <c r="L217" s="4"/>
       <c r="M217" s="5" t="s">
         <v>31</v>
       </c>
@@ -14030,46 +13982,44 @@
       <c r="V217" s="5"/>
     </row>
     <row r="218" spans="1:22">
-      <c r="A218" s="5" t="s">
+      <c r="A218" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B218" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C218" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D218" s="5"/>
-      <c r="E218" s="5"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="5"/>
-      <c r="H218" s="5"/>
-      <c r="I218" s="5"/>
-      <c r="J218" s="5" t="s">
+      <c r="C218" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
+      <c r="J218" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="K218" s="5" t="s">
+      <c r="K218" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="L218" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M218" s="5" t="s">
+      <c r="L218" s="4"/>
+      <c r="M218" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N218" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O218" s="5"/>
-      <c r="P218" s="5"/>
-      <c r="Q218" s="5"/>
-      <c r="R218" s="5"/>
-      <c r="S218" s="5"/>
-      <c r="T218" s="5"/>
-      <c r="U218" s="5" t="s">
+      <c r="N218" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O218" s="2"/>
+      <c r="P218" s="2"/>
+      <c r="Q218" s="2"/>
+      <c r="R218" s="2"/>
+      <c r="S218" s="2"/>
+      <c r="T218" s="2"/>
+      <c r="U218" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="V218" s="5" t="s">
+      <c r="V218" s="2" t="s">
         <v>332</v>
       </c>
     </row>
@@ -14530,44 +14480,42 @@
       <c r="V226" s="5"/>
     </row>
     <row r="227" spans="1:22">
-      <c r="A227" s="5" t="s">
+      <c r="A227" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B227" s="5" t="s">
+      <c r="B227" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C227" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D227" s="5"/>
-      <c r="E227" s="5"/>
-      <c r="F227" s="5"/>
-      <c r="G227" s="5"/>
-      <c r="H227" s="5"/>
-      <c r="I227" s="5"/>
-      <c r="J227" s="5" t="s">
+      <c r="C227" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="2"/>
+      <c r="I227" s="2"/>
+      <c r="J227" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K227" s="5"/>
-      <c r="L227" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M227" s="5" t="s">
+      <c r="K227" s="2"/>
+      <c r="L227" s="4"/>
+      <c r="M227" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N227" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O227" s="5"/>
-      <c r="P227" s="5"/>
-      <c r="Q227" s="5"/>
-      <c r="R227" s="5"/>
-      <c r="S227" s="5"/>
-      <c r="T227" s="5"/>
-      <c r="U227" s="5" t="s">
+      <c r="N227" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O227" s="2"/>
+      <c r="P227" s="2"/>
+      <c r="Q227" s="2"/>
+      <c r="R227" s="2"/>
+      <c r="S227" s="2"/>
+      <c r="T227" s="2"/>
+      <c r="U227" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="V227" s="5"/>
+      <c r="V227" s="2"/>
     </row>
     <row r="228" spans="1:22">
       <c r="A228" s="5" t="s">
@@ -14933,9 +14881,7 @@
         <v>301</v>
       </c>
       <c r="K234" s="5"/>
-      <c r="L234" s="7" t="s">
-        <v>334</v>
-      </c>
+      <c r="L234" s="4"/>
       <c r="M234" s="5" t="s">
         <v>31</v>
       </c>
@@ -14989,9 +14935,7 @@
         <v>291</v>
       </c>
       <c r="K235" s="5"/>
-      <c r="L235" s="7" t="s">
-        <v>334</v>
-      </c>
+      <c r="L235" s="4"/>
       <c r="M235" s="5" t="s">
         <v>31</v>
       </c>
@@ -15018,46 +14962,44 @@
       <c r="V235" s="5"/>
     </row>
     <row r="236" spans="1:22">
-      <c r="A236" s="5" t="s">
+      <c r="A236" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="B236" s="5" t="s">
+      <c r="B236" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C236" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D236" s="5"/>
-      <c r="E236" s="5"/>
-      <c r="F236" s="5"/>
-      <c r="G236" s="5"/>
-      <c r="H236" s="5"/>
-      <c r="I236" s="5"/>
-      <c r="J236" s="5" t="s">
+      <c r="C236" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="2"/>
+      <c r="I236" s="2"/>
+      <c r="J236" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="K236" s="5" t="s">
+      <c r="K236" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="L236" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M236" s="5" t="s">
+      <c r="L236" s="4"/>
+      <c r="M236" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N236" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O236" s="5"/>
-      <c r="P236" s="5"/>
-      <c r="Q236" s="5"/>
-      <c r="R236" s="5"/>
-      <c r="S236" s="5"/>
-      <c r="T236" s="5"/>
-      <c r="U236" s="5" t="s">
+      <c r="N236" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O236" s="2"/>
+      <c r="P236" s="2"/>
+      <c r="Q236" s="2"/>
+      <c r="R236" s="2"/>
+      <c r="S236" s="2"/>
+      <c r="T236" s="2"/>
+      <c r="U236" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="V236" s="5" t="s">
+      <c r="V236" s="2" t="s">
         <v>333</v>
       </c>
     </row>
@@ -15518,44 +15460,42 @@
       <c r="V244" s="5"/>
     </row>
     <row r="245" spans="1:22">
-      <c r="A245" s="5" t="s">
+      <c r="A245" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B245" s="5" t="s">
+      <c r="B245" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C245" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D245" s="5"/>
-      <c r="E245" s="5"/>
-      <c r="F245" s="5"/>
-      <c r="G245" s="5"/>
-      <c r="H245" s="5"/>
-      <c r="I245" s="5"/>
-      <c r="J245" s="5" t="s">
+      <c r="C245" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+      <c r="H245" s="2"/>
+      <c r="I245" s="2"/>
+      <c r="J245" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K245" s="5"/>
-      <c r="L245" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M245" s="5" t="s">
+      <c r="K245" s="2"/>
+      <c r="L245" s="4"/>
+      <c r="M245" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N245" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O245" s="5"/>
-      <c r="P245" s="5"/>
-      <c r="Q245" s="5"/>
-      <c r="R245" s="5"/>
-      <c r="S245" s="5"/>
-      <c r="T245" s="5"/>
-      <c r="U245" s="5" t="s">
+      <c r="N245" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O245" s="2"/>
+      <c r="P245" s="2"/>
+      <c r="Q245" s="2"/>
+      <c r="R245" s="2"/>
+      <c r="S245" s="2"/>
+      <c r="T245" s="2"/>
+      <c r="U245" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="V245" s="5"/>
+      <c r="V245" s="2"/>
     </row>
     <row r="246" spans="1:22">
       <c r="A246" s="5" t="s">
@@ -15921,9 +15861,7 @@
         <v>301</v>
       </c>
       <c r="K252" s="5"/>
-      <c r="L252" s="7" t="s">
-        <v>334</v>
-      </c>
+      <c r="L252" s="4"/>
       <c r="M252" s="5" t="s">
         <v>31</v>
       </c>
@@ -15977,9 +15915,7 @@
         <v>291</v>
       </c>
       <c r="K253" s="5"/>
-      <c r="L253" s="7" t="s">
-        <v>334</v>
-      </c>
+      <c r="L253" s="4"/>
       <c r="M253" s="5" t="s">
         <v>31</v>
       </c>
@@ -16006,46 +15942,44 @@
       <c r="V253" s="5"/>
     </row>
     <row r="254" spans="1:22">
-      <c r="A254" s="5" t="s">
+      <c r="A254" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="B254" s="5" t="s">
+      <c r="B254" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C254" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D254" s="5"/>
-      <c r="E254" s="5"/>
-      <c r="F254" s="5"/>
-      <c r="G254" s="5"/>
-      <c r="H254" s="5"/>
-      <c r="I254" s="5"/>
-      <c r="J254" s="5" t="s">
+      <c r="C254" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D254" s="2"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+      <c r="G254" s="2"/>
+      <c r="H254" s="2"/>
+      <c r="I254" s="2"/>
+      <c r="J254" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="K254" s="5" t="s">
+      <c r="K254" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="L254" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M254" s="5" t="s">
+      <c r="L254" s="4"/>
+      <c r="M254" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N254" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O254" s="5"/>
-      <c r="P254" s="5"/>
-      <c r="Q254" s="5"/>
-      <c r="R254" s="5"/>
-      <c r="S254" s="5"/>
-      <c r="T254" s="5"/>
-      <c r="U254" s="5" t="s">
+      <c r="N254" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O254" s="2"/>
+      <c r="P254" s="2"/>
+      <c r="Q254" s="2"/>
+      <c r="R254" s="2"/>
+      <c r="S254" s="2"/>
+      <c r="T254" s="2"/>
+      <c r="U254" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="V254" s="5" t="s">
+      <c r="V254" s="2" t="s">
         <v>330</v>
       </c>
     </row>
@@ -16506,44 +16440,42 @@
       <c r="V262" s="5"/>
     </row>
     <row r="263" spans="1:22">
-      <c r="A263" s="5" t="s">
+      <c r="A263" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="B263" s="5" t="s">
+      <c r="B263" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C263" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D263" s="5"/>
-      <c r="E263" s="5"/>
-      <c r="F263" s="5"/>
-      <c r="G263" s="5"/>
-      <c r="H263" s="5"/>
-      <c r="I263" s="5"/>
-      <c r="J263" s="5" t="s">
+      <c r="C263" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D263" s="2"/>
+      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
+      <c r="G263" s="2"/>
+      <c r="H263" s="2"/>
+      <c r="I263" s="2"/>
+      <c r="J263" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K263" s="5"/>
-      <c r="L263" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M263" s="5" t="s">
+      <c r="K263" s="2"/>
+      <c r="L263" s="4"/>
+      <c r="M263" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N263" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O263" s="5"/>
-      <c r="P263" s="5"/>
-      <c r="Q263" s="5"/>
-      <c r="R263" s="5"/>
-      <c r="S263" s="5"/>
-      <c r="T263" s="5"/>
-      <c r="U263" s="5" t="s">
+      <c r="N263" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O263" s="2"/>
+      <c r="P263" s="2"/>
+      <c r="Q263" s="2"/>
+      <c r="R263" s="2"/>
+      <c r="S263" s="2"/>
+      <c r="T263" s="2"/>
+      <c r="U263" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="V263" s="5"/>
+      <c r="V263" s="2"/>
     </row>
     <row r="264" spans="1:22">
       <c r="A264" s="5" t="s">
@@ -16909,9 +16841,7 @@
         <v>301</v>
       </c>
       <c r="K270" s="5"/>
-      <c r="L270" s="7" t="s">
-        <v>334</v>
-      </c>
+      <c r="L270" s="4"/>
       <c r="M270" s="5" t="s">
         <v>31</v>
       </c>
@@ -16965,9 +16895,7 @@
         <v>291</v>
       </c>
       <c r="K271" s="5"/>
-      <c r="L271" s="7" t="s">
-        <v>334</v>
-      </c>
+      <c r="L271" s="4"/>
       <c r="M271" s="5" t="s">
         <v>31</v>
       </c>
@@ -16994,46 +16922,44 @@
       <c r="V271" s="5"/>
     </row>
     <row r="272" spans="1:22">
-      <c r="A272" s="5" t="s">
+      <c r="A272" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="B272" s="5" t="s">
+      <c r="B272" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C272" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D272" s="5"/>
-      <c r="E272" s="5"/>
-      <c r="F272" s="5"/>
-      <c r="G272" s="5"/>
-      <c r="H272" s="5"/>
-      <c r="I272" s="5"/>
-      <c r="J272" s="5" t="s">
+      <c r="C272" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D272" s="2"/>
+      <c r="E272" s="2"/>
+      <c r="F272" s="2"/>
+      <c r="G272" s="2"/>
+      <c r="H272" s="2"/>
+      <c r="I272" s="2"/>
+      <c r="J272" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="K272" s="5" t="s">
+      <c r="K272" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="L272" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M272" s="5" t="s">
+      <c r="L272" s="4"/>
+      <c r="M272" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N272" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O272" s="5"/>
-      <c r="P272" s="5"/>
-      <c r="Q272" s="5"/>
-      <c r="R272" s="5"/>
-      <c r="S272" s="5"/>
-      <c r="T272" s="5"/>
-      <c r="U272" s="5" t="s">
+      <c r="N272" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O272" s="2"/>
+      <c r="P272" s="2"/>
+      <c r="Q272" s="2"/>
+      <c r="R272" s="2"/>
+      <c r="S272" s="2"/>
+      <c r="T272" s="2"/>
+      <c r="U272" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="V272" s="5" t="s">
+      <c r="V272" s="2" t="s">
         <v>333</v>
       </c>
     </row>
@@ -17494,44 +17420,42 @@
       <c r="V280" s="5"/>
     </row>
     <row r="281" spans="1:22">
-      <c r="A281" s="5" t="s">
+      <c r="A281" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B281" s="5" t="s">
+      <c r="B281" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C281" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D281" s="5"/>
-      <c r="E281" s="5"/>
-      <c r="F281" s="5"/>
-      <c r="G281" s="5"/>
-      <c r="H281" s="5"/>
-      <c r="I281" s="5"/>
-      <c r="J281" s="5" t="s">
+      <c r="C281" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D281" s="2"/>
+      <c r="E281" s="2"/>
+      <c r="F281" s="2"/>
+      <c r="G281" s="2"/>
+      <c r="H281" s="2"/>
+      <c r="I281" s="2"/>
+      <c r="J281" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K281" s="5"/>
-      <c r="L281" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M281" s="5" t="s">
+      <c r="K281" s="2"/>
+      <c r="L281" s="4"/>
+      <c r="M281" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N281" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O281" s="5"/>
-      <c r="P281" s="5"/>
-      <c r="Q281" s="5"/>
-      <c r="R281" s="5"/>
-      <c r="S281" s="5"/>
-      <c r="T281" s="5"/>
-      <c r="U281" s="5" t="s">
+      <c r="N281" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O281" s="2"/>
+      <c r="P281" s="2"/>
+      <c r="Q281" s="2"/>
+      <c r="R281" s="2"/>
+      <c r="S281" s="2"/>
+      <c r="T281" s="2"/>
+      <c r="U281" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="V281" s="5"/>
+      <c r="V281" s="2"/>
     </row>
     <row r="282" spans="1:22">
       <c r="A282" s="5" t="s">
@@ -17897,9 +17821,7 @@
         <v>301</v>
       </c>
       <c r="K288" s="5"/>
-      <c r="L288" s="7" t="s">
-        <v>334</v>
-      </c>
+      <c r="L288" s="4"/>
       <c r="M288" s="5" t="s">
         <v>31</v>
       </c>
@@ -17953,9 +17875,7 @@
         <v>291</v>
       </c>
       <c r="K289" s="5"/>
-      <c r="L289" s="7" t="s">
-        <v>334</v>
-      </c>
+      <c r="L289" s="4"/>
       <c r="M289" s="5" t="s">
         <v>31</v>
       </c>
@@ -17982,46 +17902,44 @@
       <c r="V289" s="5"/>
     </row>
     <row r="290" spans="1:22">
-      <c r="A290" s="5" t="s">
+      <c r="A290" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="B290" s="5" t="s">
+      <c r="B290" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C290" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D290" s="5"/>
-      <c r="E290" s="5"/>
-      <c r="F290" s="5"/>
-      <c r="G290" s="5"/>
-      <c r="H290" s="5"/>
-      <c r="I290" s="5"/>
-      <c r="J290" s="5" t="s">
+      <c r="C290" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D290" s="2"/>
+      <c r="E290" s="2"/>
+      <c r="F290" s="2"/>
+      <c r="G290" s="2"/>
+      <c r="H290" s="2"/>
+      <c r="I290" s="2"/>
+      <c r="J290" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="K290" s="5" t="s">
+      <c r="K290" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="L290" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M290" s="5" t="s">
+      <c r="L290" s="4"/>
+      <c r="M290" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N290" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O290" s="5"/>
-      <c r="P290" s="5"/>
-      <c r="Q290" s="5"/>
-      <c r="R290" s="5"/>
-      <c r="S290" s="5"/>
-      <c r="T290" s="5"/>
-      <c r="U290" s="5" t="s">
+      <c r="N290" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O290" s="2"/>
+      <c r="P290" s="2"/>
+      <c r="Q290" s="2"/>
+      <c r="R290" s="2"/>
+      <c r="S290" s="2"/>
+      <c r="T290" s="2"/>
+      <c r="U290" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="V290" s="5" t="s">
+      <c r="V290" s="2" t="s">
         <v>316</v>
       </c>
     </row>
@@ -18482,44 +18400,42 @@
       <c r="V298" s="5"/>
     </row>
     <row r="299" spans="1:22">
-      <c r="A299" s="5" t="s">
+      <c r="A299" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B299" s="5" t="s">
+      <c r="B299" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C299" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D299" s="5"/>
-      <c r="E299" s="5"/>
-      <c r="F299" s="5"/>
-      <c r="G299" s="5"/>
-      <c r="H299" s="5"/>
-      <c r="I299" s="5"/>
-      <c r="J299" s="5" t="s">
+      <c r="C299" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D299" s="2"/>
+      <c r="E299" s="2"/>
+      <c r="F299" s="2"/>
+      <c r="G299" s="2"/>
+      <c r="H299" s="2"/>
+      <c r="I299" s="2"/>
+      <c r="J299" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K299" s="5"/>
-      <c r="L299" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M299" s="5" t="s">
+      <c r="K299" s="2"/>
+      <c r="L299" s="4"/>
+      <c r="M299" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N299" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O299" s="5"/>
-      <c r="P299" s="5"/>
-      <c r="Q299" s="5"/>
-      <c r="R299" s="5"/>
-      <c r="S299" s="5"/>
-      <c r="T299" s="5"/>
-      <c r="U299" s="5" t="s">
+      <c r="N299" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O299" s="2"/>
+      <c r="P299" s="2"/>
+      <c r="Q299" s="2"/>
+      <c r="R299" s="2"/>
+      <c r="S299" s="2"/>
+      <c r="T299" s="2"/>
+      <c r="U299" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="V299" s="5"/>
+      <c r="V299" s="2"/>
     </row>
     <row r="300" spans="1:22">
       <c r="A300" s="5" t="s">
@@ -18885,9 +18801,7 @@
         <v>301</v>
       </c>
       <c r="K306" s="5"/>
-      <c r="L306" s="7" t="s">
-        <v>334</v>
-      </c>
+      <c r="L306" s="4"/>
       <c r="M306" s="5" t="s">
         <v>31</v>
       </c>
@@ -18941,9 +18855,7 @@
         <v>291</v>
       </c>
       <c r="K307" s="5"/>
-      <c r="L307" s="7" t="s">
-        <v>334</v>
-      </c>
+      <c r="L307" s="4"/>
       <c r="M307" s="5" t="s">
         <v>31</v>
       </c>

--- a/data/output/FV2504_FV2410/PARTIN/37000.xlsx
+++ b/data/output/FV2504_FV2410/PARTIN/37000.xlsx
@@ -2109,7 +2109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2134,6 +2134,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2576,7 +2579,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2940,7 +2943,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3144,7 +3147,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -3346,7 +3349,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -3546,7 +3549,7 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -3752,7 +3755,7 @@
         <v>312</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -3968,7 +3971,7 @@
         <v>312</v>
       </c>
       <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -4170,7 +4173,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4482,7 +4485,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4682,7 +4685,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -5056,7 +5059,7 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -5370,7 +5373,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2"/>
@@ -5466,7 +5469,7 @@
         <v>316</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5962,7 +5965,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -6336,7 +6339,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -6496,7 +6499,7 @@
         <v>319</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -6708,7 +6711,7 @@
         <v>320</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6964,7 +6967,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -7122,7 +7125,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -7268,7 +7271,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -7753,19 +7756,19 @@
       <c r="M101" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="N101" s="9" t="s">
+      <c r="N101" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="O101" s="9"/>
-      <c r="P101" s="9"/>
-      <c r="Q101" s="9"/>
-      <c r="R101" s="9"/>
-      <c r="S101" s="9"/>
-      <c r="T101" s="9"/>
-      <c r="U101" s="9" t="s">
+      <c r="O101" s="10"/>
+      <c r="P101" s="10"/>
+      <c r="Q101" s="10"/>
+      <c r="R101" s="10"/>
+      <c r="S101" s="10"/>
+      <c r="T101" s="10"/>
+      <c r="U101" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="V101" s="9" t="s">
+      <c r="V101" s="10" t="s">
         <v>355</v>
       </c>
     </row>
@@ -7786,26 +7789,26 @@
       <c r="L102" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="M102" s="9" t="s">
+      <c r="M102" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="N102" s="9" t="s">
+      <c r="N102" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="O102" s="9" t="s">
+      <c r="O102" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="P102" s="9"/>
-      <c r="Q102" s="9" t="s">
+      <c r="P102" s="10"/>
+      <c r="Q102" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="R102" s="9"/>
-      <c r="S102" s="9"/>
-      <c r="T102" s="9"/>
-      <c r="U102" s="9" t="s">
+      <c r="R102" s="10"/>
+      <c r="S102" s="10"/>
+      <c r="T102" s="10"/>
+      <c r="U102" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="V102" s="9"/>
+      <c r="V102" s="10"/>
     </row>
     <row r="103" spans="1:22">
       <c r="A103" s="5" t="s">
@@ -7824,32 +7827,32 @@
       <c r="L103" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="M103" s="9" t="s">
+      <c r="M103" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="N103" s="9" t="s">
+      <c r="N103" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="O103" s="9" t="s">
+      <c r="O103" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="P103" s="9" t="s">
+      <c r="P103" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="Q103" s="9" t="s">
+      <c r="Q103" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="R103" s="9" t="s">
+      <c r="R103" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="S103" s="9"/>
-      <c r="T103" s="9" t="s">
+      <c r="S103" s="10"/>
+      <c r="T103" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="U103" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="V103" s="9"/>
+      <c r="U103" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="V103" s="10"/>
     </row>
     <row r="104" spans="1:22">
       <c r="A104" s="5" t="s">
@@ -7868,30 +7871,30 @@
       <c r="L104" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="M104" s="9" t="s">
+      <c r="M104" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="N104" s="9" t="s">
+      <c r="N104" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="O104" s="9" t="s">
+      <c r="O104" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="P104" s="9" t="s">
+      <c r="P104" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="Q104" s="9" t="s">
+      <c r="Q104" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="R104" s="9"/>
-      <c r="S104" s="9"/>
-      <c r="T104" s="9" t="s">
+      <c r="R104" s="10"/>
+      <c r="S104" s="10"/>
+      <c r="T104" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="U104" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="V104" s="9"/>
+      <c r="U104" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="V104" s="10"/>
     </row>
     <row r="105" spans="1:22">
       <c r="A105" s="5" t="s">
@@ -7913,23 +7916,23 @@
       <c r="M105" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="N105" s="9" t="s">
+      <c r="N105" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="O105" s="9" t="s">
+      <c r="O105" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="P105" s="9"/>
-      <c r="Q105" s="9" t="s">
+      <c r="P105" s="10"/>
+      <c r="Q105" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="R105" s="9"/>
-      <c r="S105" s="9"/>
-      <c r="T105" s="9"/>
-      <c r="U105" s="9" t="s">
+      <c r="R105" s="10"/>
+      <c r="S105" s="10"/>
+      <c r="T105" s="10"/>
+      <c r="U105" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="V105" s="9"/>
+      <c r="V105" s="10"/>
     </row>
     <row r="106" spans="1:22">
       <c r="A106" s="5" t="s">
@@ -7948,32 +7951,32 @@
       <c r="L106" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="M106" s="9" t="s">
+      <c r="M106" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="N106" s="9" t="s">
+      <c r="N106" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="O106" s="9" t="s">
+      <c r="O106" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="P106" s="9" t="s">
+      <c r="P106" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="Q106" s="9" t="s">
+      <c r="Q106" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="R106" s="9" t="s">
+      <c r="R106" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="S106" s="9"/>
-      <c r="T106" s="9" t="s">
+      <c r="S106" s="10"/>
+      <c r="T106" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="U106" s="9" t="s">
+      <c r="U106" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="V106" s="9"/>
+      <c r="V106" s="10"/>
     </row>
     <row r="107" spans="1:22">
       <c r="A107" s="5" t="s">
@@ -7992,30 +7995,30 @@
       <c r="L107" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="M107" s="9" t="s">
+      <c r="M107" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="N107" s="9" t="s">
+      <c r="N107" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="O107" s="9" t="s">
+      <c r="O107" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="P107" s="9" t="s">
+      <c r="P107" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="Q107" s="9"/>
-      <c r="R107" s="9" t="s">
+      <c r="Q107" s="10"/>
+      <c r="R107" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="S107" s="9"/>
-      <c r="T107" s="9" t="s">
+      <c r="S107" s="10"/>
+      <c r="T107" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="U107" s="9" t="s">
+      <c r="U107" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="V107" s="9"/>
+      <c r="V107" s="10"/>
     </row>
     <row r="108" spans="1:22">
       <c r="A108" s="5" t="s">
@@ -8034,30 +8037,30 @@
       <c r="L108" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="M108" s="9" t="s">
+      <c r="M108" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="N108" s="9" t="s">
+      <c r="N108" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="O108" s="9" t="s">
+      <c r="O108" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="P108" s="9" t="s">
+      <c r="P108" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="Q108" s="9"/>
-      <c r="R108" s="9" t="s">
+      <c r="Q108" s="10"/>
+      <c r="R108" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="S108" s="9"/>
-      <c r="T108" s="9" t="s">
+      <c r="S108" s="10"/>
+      <c r="T108" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="U108" s="9" t="s">
+      <c r="U108" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="V108" s="9"/>
+      <c r="V108" s="10"/>
     </row>
     <row r="109" spans="1:22">
       <c r="A109" s="5" t="s">
@@ -8076,30 +8079,30 @@
       <c r="L109" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="M109" s="9" t="s">
+      <c r="M109" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="N109" s="9" t="s">
+      <c r="N109" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="O109" s="9" t="s">
+      <c r="O109" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="P109" s="9" t="s">
+      <c r="P109" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="Q109" s="9"/>
-      <c r="R109" s="9" t="s">
+      <c r="Q109" s="10"/>
+      <c r="R109" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="S109" s="9"/>
-      <c r="T109" s="9" t="s">
+      <c r="S109" s="10"/>
+      <c r="T109" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="U109" s="9" t="s">
+      <c r="U109" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="V109" s="9"/>
+      <c r="V109" s="10"/>
     </row>
     <row r="110" spans="1:22">
       <c r="A110" s="2" t="s">
@@ -8124,7 +8127,7 @@
         <v>316</v>
       </c>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -8620,7 +8623,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8806,52 +8809,52 @@
       </c>
     </row>
     <row r="123" spans="1:22">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D123" s="5" t="s">
+      <c r="C123" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E123" s="5"/>
+      <c r="E123" s="2"/>
       <c r="F123" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-      <c r="J123" s="5" t="s">
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K123" s="5"/>
+      <c r="K123" s="2"/>
       <c r="L123" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="M123" s="5" t="s">
+      <c r="M123" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N123" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O123" s="5" t="s">
+      <c r="N123" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O123" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P123" s="5"/>
+      <c r="P123" s="2"/>
       <c r="Q123" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="R123" s="5"/>
-      <c r="S123" s="5"/>
-      <c r="T123" s="5"/>
-      <c r="U123" s="5" t="s">
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
+      <c r="U123" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="V123" s="5"/>
+      <c r="V123" s="2"/>
     </row>
     <row r="124" spans="1:22">
       <c r="A124" s="5" t="s">
@@ -9104,7 +9107,7 @@
         <v>327</v>
       </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -9600,7 +9603,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9786,52 +9789,52 @@
       </c>
     </row>
     <row r="141" spans="1:22">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C141" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D141" s="5" t="s">
+      <c r="C141" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E141" s="5"/>
+      <c r="E141" s="2"/>
       <c r="F141" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5" t="s">
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K141" s="5"/>
+      <c r="K141" s="2"/>
       <c r="L141" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="M141" s="5" t="s">
+      <c r="M141" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N141" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O141" s="5" t="s">
+      <c r="N141" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O141" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P141" s="5"/>
+      <c r="P141" s="2"/>
       <c r="Q141" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="R141" s="5"/>
-      <c r="S141" s="5"/>
-      <c r="T141" s="5"/>
-      <c r="U141" s="5" t="s">
+      <c r="R141" s="2"/>
+      <c r="S141" s="2"/>
+      <c r="T141" s="2"/>
+      <c r="U141" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="V141" s="5"/>
+      <c r="V141" s="2"/>
     </row>
     <row r="142" spans="1:22">
       <c r="A142" s="5" t="s">
@@ -10084,7 +10087,7 @@
         <v>328</v>
       </c>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -10580,7 +10583,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -10766,52 +10769,52 @@
       </c>
     </row>
     <row r="159" spans="1:22">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C159" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D159" s="5" t="s">
+      <c r="C159" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E159" s="5"/>
+      <c r="E159" s="2"/>
       <c r="F159" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="5"/>
-      <c r="J159" s="5" t="s">
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K159" s="5"/>
+      <c r="K159" s="2"/>
       <c r="L159" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="M159" s="5" t="s">
+      <c r="M159" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N159" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O159" s="5" t="s">
+      <c r="N159" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O159" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P159" s="5"/>
+      <c r="P159" s="2"/>
       <c r="Q159" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="R159" s="5"/>
-      <c r="S159" s="5"/>
-      <c r="T159" s="5"/>
-      <c r="U159" s="5" t="s">
+      <c r="R159" s="2"/>
+      <c r="S159" s="2"/>
+      <c r="T159" s="2"/>
+      <c r="U159" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="V159" s="5"/>
+      <c r="V159" s="2"/>
     </row>
     <row r="160" spans="1:22">
       <c r="A160" s="5" t="s">
@@ -11064,7 +11067,7 @@
         <v>329</v>
       </c>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -11560,7 +11563,7 @@
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -11746,52 +11749,52 @@
       </c>
     </row>
     <row r="177" spans="1:22">
-      <c r="A177" s="5" t="s">
+      <c r="A177" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B177" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C177" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D177" s="5" t="s">
+      <c r="C177" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E177" s="5"/>
+      <c r="E177" s="2"/>
       <c r="F177" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G177" s="5"/>
-      <c r="H177" s="5"/>
-      <c r="I177" s="5"/>
-      <c r="J177" s="5" t="s">
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K177" s="5"/>
+      <c r="K177" s="2"/>
       <c r="L177" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="M177" s="5" t="s">
+      <c r="M177" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N177" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O177" s="5" t="s">
+      <c r="N177" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O177" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P177" s="5"/>
+      <c r="P177" s="2"/>
       <c r="Q177" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="R177" s="5"/>
-      <c r="S177" s="5"/>
-      <c r="T177" s="5"/>
-      <c r="U177" s="5" t="s">
+      <c r="R177" s="2"/>
+      <c r="S177" s="2"/>
+      <c r="T177" s="2"/>
+      <c r="U177" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="V177" s="5"/>
+      <c r="V177" s="2"/>
     </row>
     <row r="178" spans="1:22">
       <c r="A178" s="5" t="s">
@@ -12044,7 +12047,7 @@
         <v>330</v>
       </c>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -12540,7 +12543,7 @@
       </c>
       <c r="K191" s="2"/>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -12726,52 +12729,52 @@
       </c>
     </row>
     <row r="195" spans="1:22">
-      <c r="A195" s="5" t="s">
+      <c r="A195" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="B195" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C195" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D195" s="5" t="s">
+      <c r="C195" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E195" s="5"/>
+      <c r="E195" s="2"/>
       <c r="F195" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G195" s="5"/>
-      <c r="H195" s="5"/>
-      <c r="I195" s="5"/>
-      <c r="J195" s="5" t="s">
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K195" s="5"/>
+      <c r="K195" s="2"/>
       <c r="L195" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="M195" s="5" t="s">
+      <c r="M195" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N195" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O195" s="5" t="s">
+      <c r="N195" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O195" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P195" s="5"/>
+      <c r="P195" s="2"/>
       <c r="Q195" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="R195" s="5"/>
-      <c r="S195" s="5"/>
-      <c r="T195" s="5"/>
-      <c r="U195" s="5" t="s">
+      <c r="R195" s="2"/>
+      <c r="S195" s="2"/>
+      <c r="T195" s="2"/>
+      <c r="U195" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="V195" s="5"/>
+      <c r="V195" s="2"/>
     </row>
     <row r="196" spans="1:22">
       <c r="A196" s="5" t="s">
@@ -13024,7 +13027,7 @@
         <v>331</v>
       </c>
       <c r="L200" s="4"/>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N200" s="2" t="s">
@@ -13520,7 +13523,7 @@
       </c>
       <c r="K209" s="2"/>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -13706,52 +13709,52 @@
       </c>
     </row>
     <row r="213" spans="1:22">
-      <c r="A213" s="5" t="s">
+      <c r="A213" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B213" s="5" t="s">
+      <c r="B213" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C213" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D213" s="5" t="s">
+      <c r="C213" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E213" s="5"/>
+      <c r="E213" s="2"/>
       <c r="F213" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G213" s="5"/>
-      <c r="H213" s="5"/>
-      <c r="I213" s="5"/>
-      <c r="J213" s="5" t="s">
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+      <c r="J213" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K213" s="5"/>
+      <c r="K213" s="2"/>
       <c r="L213" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="M213" s="5" t="s">
+      <c r="M213" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N213" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O213" s="5" t="s">
+      <c r="N213" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O213" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P213" s="5"/>
+      <c r="P213" s="2"/>
       <c r="Q213" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="R213" s="5"/>
-      <c r="S213" s="5"/>
-      <c r="T213" s="5"/>
-      <c r="U213" s="5" t="s">
+      <c r="R213" s="2"/>
+      <c r="S213" s="2"/>
+      <c r="T213" s="2"/>
+      <c r="U213" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="V213" s="5"/>
+      <c r="V213" s="2"/>
     </row>
     <row r="214" spans="1:22">
       <c r="A214" s="5" t="s">
@@ -14004,7 +14007,7 @@
         <v>332</v>
       </c>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -14500,7 +14503,7 @@
       </c>
       <c r="K227" s="2"/>
       <c r="L227" s="4"/>
-      <c r="M227" s="2" t="s">
+      <c r="M227" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N227" s="2" t="s">
@@ -14686,52 +14689,52 @@
       </c>
     </row>
     <row r="231" spans="1:22">
-      <c r="A231" s="5" t="s">
+      <c r="A231" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="B231" s="5" t="s">
+      <c r="B231" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C231" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D231" s="5" t="s">
+      <c r="C231" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D231" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E231" s="5"/>
+      <c r="E231" s="2"/>
       <c r="F231" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G231" s="5"/>
-      <c r="H231" s="5"/>
-      <c r="I231" s="5"/>
-      <c r="J231" s="5" t="s">
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+      <c r="I231" s="2"/>
+      <c r="J231" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K231" s="5"/>
+      <c r="K231" s="2"/>
       <c r="L231" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="M231" s="5" t="s">
+      <c r="M231" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N231" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O231" s="5" t="s">
+      <c r="N231" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O231" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P231" s="5"/>
+      <c r="P231" s="2"/>
       <c r="Q231" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="R231" s="5"/>
-      <c r="S231" s="5"/>
-      <c r="T231" s="5"/>
-      <c r="U231" s="5" t="s">
+      <c r="R231" s="2"/>
+      <c r="S231" s="2"/>
+      <c r="T231" s="2"/>
+      <c r="U231" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="V231" s="5"/>
+      <c r="V231" s="2"/>
     </row>
     <row r="232" spans="1:22">
       <c r="A232" s="5" t="s">
@@ -14984,7 +14987,7 @@
         <v>333</v>
       </c>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -15480,7 +15483,7 @@
       </c>
       <c r="K245" s="2"/>
       <c r="L245" s="4"/>
-      <c r="M245" s="2" t="s">
+      <c r="M245" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N245" s="2" t="s">
@@ -15666,52 +15669,52 @@
       </c>
     </row>
     <row r="249" spans="1:22">
-      <c r="A249" s="5" t="s">
+      <c r="A249" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B249" s="5" t="s">
+      <c r="B249" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C249" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D249" s="5" t="s">
+      <c r="C249" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D249" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E249" s="5"/>
+      <c r="E249" s="2"/>
       <c r="F249" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G249" s="5"/>
-      <c r="H249" s="5"/>
-      <c r="I249" s="5"/>
-      <c r="J249" s="5" t="s">
+      <c r="G249" s="2"/>
+      <c r="H249" s="2"/>
+      <c r="I249" s="2"/>
+      <c r="J249" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K249" s="5"/>
+      <c r="K249" s="2"/>
       <c r="L249" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="M249" s="5" t="s">
+      <c r="M249" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N249" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O249" s="5" t="s">
+      <c r="N249" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O249" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P249" s="5"/>
+      <c r="P249" s="2"/>
       <c r="Q249" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="R249" s="5"/>
-      <c r="S249" s="5"/>
-      <c r="T249" s="5"/>
-      <c r="U249" s="5" t="s">
+      <c r="R249" s="2"/>
+      <c r="S249" s="2"/>
+      <c r="T249" s="2"/>
+      <c r="U249" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="V249" s="5"/>
+      <c r="V249" s="2"/>
     </row>
     <row r="250" spans="1:22">
       <c r="A250" s="5" t="s">
@@ -15964,7 +15967,7 @@
         <v>330</v>
       </c>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -16460,7 +16463,7 @@
       </c>
       <c r="K263" s="2"/>
       <c r="L263" s="4"/>
-      <c r="M263" s="2" t="s">
+      <c r="M263" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N263" s="2" t="s">
@@ -16646,52 +16649,52 @@
       </c>
     </row>
     <row r="267" spans="1:22">
-      <c r="A267" s="5" t="s">
+      <c r="A267" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="B267" s="5" t="s">
+      <c r="B267" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C267" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D267" s="5" t="s">
+      <c r="C267" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D267" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E267" s="5"/>
+      <c r="E267" s="2"/>
       <c r="F267" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G267" s="5"/>
-      <c r="H267" s="5"/>
-      <c r="I267" s="5"/>
-      <c r="J267" s="5" t="s">
+      <c r="G267" s="2"/>
+      <c r="H267" s="2"/>
+      <c r="I267" s="2"/>
+      <c r="J267" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K267" s="5"/>
+      <c r="K267" s="2"/>
       <c r="L267" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="M267" s="5" t="s">
+      <c r="M267" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N267" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O267" s="5" t="s">
+      <c r="N267" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O267" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P267" s="5"/>
+      <c r="P267" s="2"/>
       <c r="Q267" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="R267" s="5"/>
-      <c r="S267" s="5"/>
-      <c r="T267" s="5"/>
-      <c r="U267" s="5" t="s">
+      <c r="R267" s="2"/>
+      <c r="S267" s="2"/>
+      <c r="T267" s="2"/>
+      <c r="U267" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="V267" s="5"/>
+      <c r="V267" s="2"/>
     </row>
     <row r="268" spans="1:22">
       <c r="A268" s="5" t="s">
@@ -16944,7 +16947,7 @@
         <v>333</v>
       </c>
       <c r="L272" s="4"/>
-      <c r="M272" s="2" t="s">
+      <c r="M272" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N272" s="2" t="s">
@@ -17440,7 +17443,7 @@
       </c>
       <c r="K281" s="2"/>
       <c r="L281" s="4"/>
-      <c r="M281" s="2" t="s">
+      <c r="M281" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N281" s="2" t="s">
@@ -17626,52 +17629,52 @@
       </c>
     </row>
     <row r="285" spans="1:22">
-      <c r="A285" s="5" t="s">
+      <c r="A285" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B285" s="5" t="s">
+      <c r="B285" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C285" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D285" s="5" t="s">
+      <c r="C285" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D285" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E285" s="5"/>
+      <c r="E285" s="2"/>
       <c r="F285" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G285" s="5"/>
-      <c r="H285" s="5"/>
-      <c r="I285" s="5"/>
-      <c r="J285" s="5" t="s">
+      <c r="G285" s="2"/>
+      <c r="H285" s="2"/>
+      <c r="I285" s="2"/>
+      <c r="J285" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K285" s="5"/>
+      <c r="K285" s="2"/>
       <c r="L285" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="M285" s="5" t="s">
+      <c r="M285" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N285" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O285" s="5" t="s">
+      <c r="N285" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O285" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P285" s="5"/>
+      <c r="P285" s="2"/>
       <c r="Q285" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="R285" s="5"/>
-      <c r="S285" s="5"/>
-      <c r="T285" s="5"/>
-      <c r="U285" s="5" t="s">
+      <c r="R285" s="2"/>
+      <c r="S285" s="2"/>
+      <c r="T285" s="2"/>
+      <c r="U285" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="V285" s="5"/>
+      <c r="V285" s="2"/>
     </row>
     <row r="286" spans="1:22">
       <c r="A286" s="5" t="s">
@@ -17924,7 +17927,7 @@
         <v>316</v>
       </c>
       <c r="L290" s="4"/>
-      <c r="M290" s="2" t="s">
+      <c r="M290" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N290" s="2" t="s">
@@ -18420,7 +18423,7 @@
       </c>
       <c r="K299" s="2"/>
       <c r="L299" s="4"/>
-      <c r="M299" s="2" t="s">
+      <c r="M299" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N299" s="2" t="s">
@@ -18606,52 +18609,52 @@
       </c>
     </row>
     <row r="303" spans="1:22">
-      <c r="A303" s="5" t="s">
+      <c r="A303" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="B303" s="5" t="s">
+      <c r="B303" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C303" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D303" s="5" t="s">
+      <c r="C303" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D303" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E303" s="5"/>
+      <c r="E303" s="2"/>
       <c r="F303" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G303" s="5"/>
-      <c r="H303" s="5"/>
-      <c r="I303" s="5"/>
-      <c r="J303" s="5" t="s">
+      <c r="G303" s="2"/>
+      <c r="H303" s="2"/>
+      <c r="I303" s="2"/>
+      <c r="J303" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K303" s="5"/>
+      <c r="K303" s="2"/>
       <c r="L303" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="M303" s="5" t="s">
+      <c r="M303" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N303" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O303" s="5" t="s">
+      <c r="N303" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O303" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P303" s="5"/>
+      <c r="P303" s="2"/>
       <c r="Q303" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="R303" s="5"/>
-      <c r="S303" s="5"/>
-      <c r="T303" s="5"/>
-      <c r="U303" s="5" t="s">
+      <c r="R303" s="2"/>
+      <c r="S303" s="2"/>
+      <c r="T303" s="2"/>
+      <c r="U303" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="V303" s="5"/>
+      <c r="V303" s="2"/>
     </row>
     <row r="304" spans="1:22">
       <c r="A304" s="5" t="s">
@@ -18882,48 +18885,48 @@
       <c r="V307" s="5"/>
     </row>
     <row r="308" spans="1:22">
-      <c r="A308" s="5" t="s">
+      <c r="A308" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="B308" s="5" t="s">
+      <c r="B308" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C308" s="5"/>
-      <c r="D308" s="5" t="s">
+      <c r="C308" s="2"/>
+      <c r="D308" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E308" s="5"/>
+      <c r="E308" s="2"/>
       <c r="F308" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G308" s="5"/>
-      <c r="H308" s="5"/>
-      <c r="I308" s="5"/>
-      <c r="J308" s="5" t="s">
+      <c r="G308" s="2"/>
+      <c r="H308" s="2"/>
+      <c r="I308" s="2"/>
+      <c r="J308" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K308" s="5"/>
+      <c r="K308" s="2"/>
       <c r="L308" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="M308" s="5" t="s">
+      <c r="M308" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N308" s="5"/>
-      <c r="O308" s="5" t="s">
+      <c r="N308" s="2"/>
+      <c r="O308" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P308" s="5"/>
+      <c r="P308" s="2"/>
       <c r="Q308" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="R308" s="5"/>
-      <c r="S308" s="5"/>
-      <c r="T308" s="5"/>
-      <c r="U308" s="5" t="s">
+      <c r="R308" s="2"/>
+      <c r="S308" s="2"/>
+      <c r="T308" s="2"/>
+      <c r="U308" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="V308" s="5"/>
+      <c r="V308" s="2"/>
     </row>
     <row r="309" spans="1:22">
       <c r="A309" s="5" t="s">
